--- a/MultiJob_sst/polarfly_topo/simulation_result.csv.xlsx
+++ b/MultiJob_sst/polarfly_topo/simulation_result.csv.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SST_Install\task1\MultiJob_sst\polarfly_topo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47A802AD-CA24-479C-B29E-1BA6A0A7FE65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CD7FFDB-414B-470E-90A0-B84C5D2772A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5109234A-231C-4DE0-B350-B892575060B5}"/>
   </bookViews>
@@ -2420,8 +2420,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC60619F-DD71-45C3-B0DC-66ECD39E0FC3}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.5"/>
